--- a/Results/Breguets_Range/RF_Confidence_Scores.xlsx
+++ b/Results/Breguets_Range/RF_Confidence_Scores.xlsx
@@ -460,67 +460,67 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>3733678.08</v>
+        <v>3733.67808</v>
       </c>
       <c r="C2" t="n">
-        <v>3806259.494399999</v>
+        <v>3763.6118784</v>
       </c>
       <c r="D2" t="n">
-        <v>72581.41439999919</v>
+        <v>29.9337984000008</v>
       </c>
       <c r="E2" t="n">
-        <v>1.377744193640397e-05</v>
+        <v>0.03232710018566534</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2639324.16</v>
+        <v>2446.20288</v>
       </c>
       <c r="C3" t="n">
-        <v>2837434.406400002</v>
+        <v>2208.856826880001</v>
       </c>
       <c r="D3" t="n">
-        <v>198110.2464000015</v>
+        <v>237.3460531199989</v>
       </c>
       <c r="E3" t="n">
-        <v>5.047669015119541e-06</v>
+        <v>0.004195580278799644</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>2768071.68</v>
+        <v>2639.32416</v>
       </c>
       <c r="C4" t="n">
-        <v>3203560.166400002</v>
+        <v>2966.825663999998</v>
       </c>
       <c r="D4" t="n">
-        <v>435488.4864000017</v>
+        <v>327.5015039999976</v>
       </c>
       <c r="E4" t="n">
-        <v>2.296266686634748e-06</v>
+        <v>0.003044126093255291</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>2446202.88</v>
+        <v>2768.07168</v>
       </c>
       <c r="C5" t="n">
-        <v>1934045.245440004</v>
+        <v>3216.434918399999</v>
       </c>
       <c r="D5" t="n">
-        <v>512157.6345599955</v>
+        <v>448.3632383999989</v>
       </c>
       <c r="E5" t="n">
-        <v>1.95252004461297e-06</v>
+        <v>0.002225371179806778</v>
       </c>
     </row>
     <row r="6">
@@ -528,16 +528,16 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>5391302.4</v>
+        <v>5391.3024</v>
       </c>
       <c r="C6" t="n">
-        <v>6439790.016</v>
+        <v>6426.110592000005</v>
       </c>
       <c r="D6" t="n">
-        <v>1048487.615999999</v>
+        <v>1034.808192000004</v>
       </c>
       <c r="E6" t="n">
-        <v>9.537537983149647e-07</v>
+        <v>0.0009654297076654092</v>
       </c>
     </row>
     <row r="7">
@@ -545,50 +545,50 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4667097.600000001</v>
+        <v>4667.097600000001</v>
       </c>
       <c r="C7" t="n">
-        <v>5842723.392</v>
+        <v>5749.381439999999</v>
       </c>
       <c r="D7" t="n">
-        <v>1175625.791999999</v>
+        <v>1082.283839999998</v>
       </c>
       <c r="E7" t="n">
-        <v>8.506100803459747e-07</v>
+        <v>0.0009231190968380011</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>4506163.2</v>
+        <v>14162.2272</v>
       </c>
       <c r="C8" t="n">
-        <v>6245059.392000001</v>
+        <v>12403.21420800001</v>
       </c>
       <c r="D8" t="n">
-        <v>1738896.192000001</v>
+        <v>1759.012991999991</v>
       </c>
       <c r="E8" t="n">
-        <v>5.750771262387544e-07</v>
+        <v>0.0005681776239979058</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>14162227.2</v>
+        <v>4506.1632</v>
       </c>
       <c r="C9" t="n">
-        <v>12357347.904</v>
+        <v>6281.269632000007</v>
       </c>
       <c r="D9" t="n">
-        <v>1804879.296000004</v>
+        <v>1775.106432000007</v>
       </c>
       <c r="E9" t="n">
-        <v>5.540533642126912e-07</v>
+        <v>0.0005630293218824379</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Breguets_Range/RF_Confidence_Scores.xlsx
+++ b/Results/Breguets_Range/RF_Confidence_Scores.xlsx
@@ -457,70 +457,70 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>3733.67808</v>
+        <v>2768.07168</v>
       </c>
       <c r="C2" t="n">
-        <v>3763.6118784</v>
+        <v>2709.215670857143</v>
       </c>
       <c r="D2" t="n">
-        <v>29.9337984000008</v>
+        <v>58.85600914285669</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03232710018566534</v>
+        <v>0.01670676034570443</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2446.20288</v>
+        <v>3733.67808</v>
       </c>
       <c r="C3" t="n">
-        <v>2208.856826880001</v>
+        <v>3911.855451428573</v>
       </c>
       <c r="D3" t="n">
-        <v>237.3460531199989</v>
+        <v>178.1773714285728</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004195580278799644</v>
+        <v>0.005581061894295284</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2639.32416</v>
+        <v>2446.20288</v>
       </c>
       <c r="C4" t="n">
-        <v>2966.825663999998</v>
+        <v>2671.051227428571</v>
       </c>
       <c r="D4" t="n">
-        <v>327.5015039999976</v>
+        <v>224.8483474285713</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003044126093255291</v>
+        <v>0.004427749909997763</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2768.07168</v>
+        <v>2639.32416</v>
       </c>
       <c r="C5" t="n">
-        <v>3216.434918399999</v>
+        <v>2982.4363008</v>
       </c>
       <c r="D5" t="n">
-        <v>448.3632383999989</v>
+        <v>343.1121408000004</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002225371179806778</v>
+        <v>0.002906029405632639</v>
       </c>
     </row>
     <row r="6">
@@ -531,13 +531,13 @@
         <v>5391.3024</v>
       </c>
       <c r="C6" t="n">
-        <v>6426.110592000005</v>
+        <v>5954.342893714289</v>
       </c>
       <c r="D6" t="n">
-        <v>1034.808192000004</v>
+        <v>563.0404937142894</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0009654297076654092</v>
+        <v>0.001772922354235338</v>
       </c>
     </row>
     <row r="7">
@@ -548,47 +548,47 @@
         <v>4667.097600000001</v>
       </c>
       <c r="C7" t="n">
-        <v>5749.381439999999</v>
+        <v>5867.208411428572</v>
       </c>
       <c r="D7" t="n">
-        <v>1082.283839999998</v>
+        <v>1200.110811428571</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0009231190968380011</v>
+        <v>0.0008325626499112312</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>14162.2272</v>
+        <v>4506.1632</v>
       </c>
       <c r="C8" t="n">
-        <v>12403.21420800001</v>
+        <v>6291.385508571428</v>
       </c>
       <c r="D8" t="n">
-        <v>1759.012991999991</v>
+        <v>1785.222308571428</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0005681776239979058</v>
+        <v>0.0005598407293433554</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>4506.1632</v>
+        <v>14162.2272</v>
       </c>
       <c r="C9" t="n">
-        <v>6281.269632000007</v>
+        <v>12143.65001142857</v>
       </c>
       <c r="D9" t="n">
-        <v>1775.106432000007</v>
+        <v>2018.577188571431</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0005630293218824379</v>
+        <v>0.0004951531467372932</v>
       </c>
     </row>
   </sheetData>
